--- a/Pres.xlsx
+++ b/Pres.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxan\Desktop\New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79262\Desktop\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E007D1DF-C11A-44F6-A58F-8CE2B78C807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA98B18F-07C6-41CC-9BB3-9EA9C426D59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>январь</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>декабрь</t>
+  </si>
+  <si>
+    <t>e2ex2wxw</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +491,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
